--- a/docs/CasosPrueba - Estadística/CP - DesvMediaConSigno.xlsx
+++ b/docs/CasosPrueba - Estadística/CP - DesvMediaConSigno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cc5a38752f2b5bf/Ingeniería/Cuarto/Primer Cuatrimestre/Validación y Pruebas/Prácticas/Práctica 2/TDD-ACB-JGA/docs/CasosPrueba - Estadística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B7E218-CAC2-4C15-B715-C7AE028EA687}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18ED09D7-6D23-4D2D-881B-919D90922427}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
   </bookViews>
   <sheets>
     <sheet name="CP-001" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>Fecha:</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>CP-DESM-004</t>
+  </si>
+  <si>
+    <t>RF-016</t>
   </si>
 </sst>
 </file>
@@ -313,21 +316,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -337,10 +325,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -349,25 +349,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,10 +514,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8249930-1C9A-43EA-8DD6-C995957145D5}">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,222 +829,224 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1056,6 +1057,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B20:C21"/>
@@ -1066,15 +1076,6 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -1096,7 +1097,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,222 +1110,224 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1335,6 +1338,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
@@ -1345,15 +1357,6 @@
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -1375,7 +1378,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,222 +1391,224 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1614,6 +1619,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
@@ -1624,15 +1638,6 @@
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -1653,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E71E4C-4BDB-494F-86DD-9DCA7FAAAD19}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,285 +1672,287 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="5">
         <v>2</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+      <c r="B13" s="5">
         <v>3</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="5">
         <v>1</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
+      <c r="B17" s="5">
         <v>2</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+      <c r="B18" s="5">
         <v>3</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+      <c r="B19" s="5">
         <v>4</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+      <c r="B20" s="5">
         <v>6</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
+      <c r="B23" s="5">
         <v>1</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="3" t="s">
         <v>1</v>
       </c>
@@ -1956,11 +1963,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B2:C2"/>
@@ -1968,18 +1979,14 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="D27">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
